--- a/data/bls/cpi_1913_present.xlsx
+++ b/data/bls/cpi_1913_present.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,528 +502,4628 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2013</v>
+        <v>1913</v>
       </c>
       <c r="B2" t="n">
-        <v>230.28</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>232.166</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>232.773</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>232.531</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>232.945</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>233.504</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>233.596</v>
+        <v>9.9</v>
       </c>
       <c r="I2" t="n">
-        <v>233.877</v>
+        <v>9.9</v>
       </c>
       <c r="J2" t="n">
-        <v>234.149</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>233.546</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>233.069</v>
+        <v>10.1</v>
       </c>
       <c r="M2" t="n">
-        <v>233.049</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2014</v>
+        <v>1914</v>
       </c>
       <c r="B3" t="n">
-        <v>233.916</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>234.781</v>
+        <v>9.9</v>
       </c>
       <c r="D3" t="n">
-        <v>236.293</v>
+        <v>9.9</v>
       </c>
       <c r="E3" t="n">
-        <v>237.072</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>237.9</v>
+        <v>9.9</v>
       </c>
       <c r="G3" t="n">
-        <v>238.343</v>
+        <v>9.9</v>
       </c>
       <c r="H3" t="n">
-        <v>238.25</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>237.852</v>
+        <v>10.2</v>
       </c>
       <c r="J3" t="n">
-        <v>238.031</v>
+        <v>10.2</v>
       </c>
       <c r="K3" t="n">
-        <v>237.433</v>
+        <v>10.1</v>
       </c>
       <c r="L3" t="n">
-        <v>236.151</v>
+        <v>10.2</v>
       </c>
       <c r="M3" t="n">
-        <v>234.812</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2015</v>
+        <v>1915</v>
       </c>
       <c r="B4" t="n">
-        <v>233.707</v>
+        <v>10.1</v>
       </c>
       <c r="C4" t="n">
-        <v>234.722</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>236.119</v>
+        <v>9.9</v>
       </c>
       <c r="E4" t="n">
-        <v>236.599</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>237.805</v>
+        <v>10.1</v>
       </c>
       <c r="G4" t="n">
-        <v>238.638</v>
+        <v>10.1</v>
       </c>
       <c r="H4" t="n">
-        <v>238.654</v>
+        <v>10.1</v>
       </c>
       <c r="I4" t="n">
-        <v>238.316</v>
+        <v>10.1</v>
       </c>
       <c r="J4" t="n">
-        <v>237.945</v>
+        <v>10.1</v>
       </c>
       <c r="K4" t="n">
-        <v>237.838</v>
+        <v>10.2</v>
       </c>
       <c r="L4" t="n">
-        <v>237.336</v>
+        <v>10.3</v>
       </c>
       <c r="M4" t="n">
-        <v>236.525</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2016</v>
+        <v>1916</v>
       </c>
       <c r="B5" t="n">
-        <v>236.916</v>
+        <v>10.4</v>
       </c>
       <c r="C5" t="n">
-        <v>237.111</v>
+        <v>10.4</v>
       </c>
       <c r="D5" t="n">
-        <v>238.132</v>
+        <v>10.5</v>
       </c>
       <c r="E5" t="n">
-        <v>239.261</v>
+        <v>10.6</v>
       </c>
       <c r="F5" t="n">
-        <v>240.229</v>
+        <v>10.7</v>
       </c>
       <c r="G5" t="n">
-        <v>241.018</v>
+        <v>10.8</v>
       </c>
       <c r="H5" t="n">
-        <v>240.628</v>
+        <v>10.8</v>
       </c>
       <c r="I5" t="n">
-        <v>240.849</v>
+        <v>10.9</v>
       </c>
       <c r="J5" t="n">
-        <v>241.428</v>
+        <v>11.1</v>
       </c>
       <c r="K5" t="n">
-        <v>241.729</v>
+        <v>11.3</v>
       </c>
       <c r="L5" t="n">
-        <v>241.353</v>
+        <v>11.5</v>
       </c>
       <c r="M5" t="n">
-        <v>241.432</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2017</v>
+        <v>1917</v>
       </c>
       <c r="B6" t="n">
-        <v>242.839</v>
+        <v>11.7</v>
       </c>
       <c r="C6" t="n">
-        <v>243.603</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>243.801</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>244.524</v>
+        <v>12.6</v>
       </c>
       <c r="F6" t="n">
-        <v>244.733</v>
+        <v>12.8</v>
       </c>
       <c r="G6" t="n">
-        <v>244.955</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>244.786</v>
+        <v>12.8</v>
       </c>
       <c r="I6" t="n">
-        <v>245.519</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>246.819</v>
+        <v>13.3</v>
       </c>
       <c r="K6" t="n">
-        <v>246.663</v>
+        <v>13.5</v>
       </c>
       <c r="L6" t="n">
-        <v>246.669</v>
+        <v>13.5</v>
       </c>
       <c r="M6" t="n">
-        <v>246.524</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2018</v>
+        <v>1918</v>
       </c>
       <c r="B7" t="n">
-        <v>247.867</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>248.991</v>
+        <v>14.1</v>
       </c>
       <c r="D7" t="n">
-        <v>249.554</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>250.546</v>
+        <v>14.2</v>
       </c>
       <c r="F7" t="n">
-        <v>251.588</v>
+        <v>14.5</v>
       </c>
       <c r="G7" t="n">
-        <v>251.989</v>
+        <v>14.7</v>
       </c>
       <c r="H7" t="n">
-        <v>252.006</v>
+        <v>15.1</v>
       </c>
       <c r="I7" t="n">
-        <v>252.146</v>
+        <v>15.4</v>
       </c>
       <c r="J7" t="n">
-        <v>252.439</v>
+        <v>15.7</v>
       </c>
       <c r="K7" t="n">
-        <v>252.885</v>
+        <v>16</v>
       </c>
       <c r="L7" t="n">
-        <v>252.038</v>
+        <v>16.3</v>
       </c>
       <c r="M7" t="n">
-        <v>251.233</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2019</v>
+        <v>1919</v>
       </c>
       <c r="B8" t="n">
-        <v>251.712</v>
+        <v>16.5</v>
       </c>
       <c r="C8" t="n">
-        <v>252.776</v>
+        <v>16.2</v>
       </c>
       <c r="D8" t="n">
-        <v>254.202</v>
+        <v>16.4</v>
       </c>
       <c r="E8" t="n">
-        <v>255.548</v>
+        <v>16.7</v>
       </c>
       <c r="F8" t="n">
-        <v>256.092</v>
+        <v>16.9</v>
       </c>
       <c r="G8" t="n">
-        <v>256.143</v>
+        <v>16.9</v>
       </c>
       <c r="H8" t="n">
-        <v>256.571</v>
+        <v>17.4</v>
       </c>
       <c r="I8" t="n">
-        <v>256.558</v>
+        <v>17.7</v>
       </c>
       <c r="J8" t="n">
-        <v>256.759</v>
+        <v>17.8</v>
       </c>
       <c r="K8" t="n">
-        <v>257.346</v>
+        <v>18.1</v>
       </c>
       <c r="L8" t="n">
-        <v>257.208</v>
+        <v>18.5</v>
       </c>
       <c r="M8" t="n">
-        <v>256.974</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2020</v>
+        <v>1920</v>
       </c>
       <c r="B9" t="n">
-        <v>257.971</v>
+        <v>19.3</v>
       </c>
       <c r="C9" t="n">
-        <v>258.678</v>
+        <v>19.5</v>
       </c>
       <c r="D9" t="n">
-        <v>258.115</v>
+        <v>19.7</v>
       </c>
       <c r="E9" t="n">
-        <v>256.389</v>
+        <v>20.3</v>
       </c>
       <c r="F9" t="n">
-        <v>256.394</v>
+        <v>20.6</v>
       </c>
       <c r="G9" t="n">
-        <v>257.797</v>
+        <v>20.9</v>
       </c>
       <c r="H9" t="n">
-        <v>259.101</v>
+        <v>20.8</v>
       </c>
       <c r="I9" t="n">
-        <v>259.918</v>
+        <v>20.3</v>
       </c>
       <c r="J9" t="n">
-        <v>260.28</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>260.388</v>
+        <v>19.9</v>
       </c>
       <c r="L9" t="n">
-        <v>260.229</v>
+        <v>19.8</v>
       </c>
       <c r="M9" t="n">
-        <v>260.474</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2021</v>
+        <v>1921</v>
       </c>
       <c r="B10" t="n">
-        <v>261.582</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>263.014</v>
+        <v>18.4</v>
       </c>
       <c r="D10" t="n">
-        <v>264.877</v>
+        <v>18.3</v>
       </c>
       <c r="E10" t="n">
-        <v>267.054</v>
+        <v>18.1</v>
       </c>
       <c r="F10" t="n">
-        <v>269.195</v>
+        <v>17.7</v>
       </c>
       <c r="G10" t="n">
-        <v>271.696</v>
+        <v>17.6</v>
       </c>
       <c r="H10" t="n">
-        <v>273.003</v>
+        <v>17.7</v>
       </c>
       <c r="I10" t="n">
-        <v>273.567</v>
+        <v>17.7</v>
       </c>
       <c r="J10" t="n">
-        <v>274.31</v>
+        <v>17.5</v>
       </c>
       <c r="K10" t="n">
-        <v>276.589</v>
+        <v>17.5</v>
       </c>
       <c r="L10" t="n">
-        <v>277.948</v>
+        <v>17.4</v>
       </c>
       <c r="M10" t="n">
-        <v>278.802</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2022</v>
+        <v>1922</v>
       </c>
       <c r="B11" t="n">
-        <v>281.148</v>
+        <v>16.9</v>
       </c>
       <c r="C11" t="n">
-        <v>283.716</v>
+        <v>16.9</v>
       </c>
       <c r="D11" t="n">
-        <v>287.504</v>
+        <v>16.7</v>
       </c>
       <c r="E11" t="n">
-        <v>289.109</v>
+        <v>16.7</v>
       </c>
       <c r="F11" t="n">
-        <v>292.296</v>
+        <v>16.7</v>
       </c>
       <c r="G11" t="n">
-        <v>296.311</v>
+        <v>16.7</v>
       </c>
       <c r="H11" t="n">
-        <v>296.276</v>
+        <v>16.8</v>
       </c>
       <c r="I11" t="n">
-        <v>296.171</v>
+        <v>16.6</v>
       </c>
       <c r="J11" t="n">
-        <v>296.808</v>
+        <v>16.6</v>
       </c>
       <c r="K11" t="n">
-        <v>298.012</v>
+        <v>16.7</v>
       </c>
       <c r="L11" t="n">
-        <v>297.711</v>
+        <v>16.8</v>
       </c>
       <c r="M11" t="n">
-        <v>296.797</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2023</v>
+        <v>1923</v>
       </c>
       <c r="B12" t="n">
-        <v>299.17</v>
+        <v>16.8</v>
       </c>
       <c r="C12" t="n">
-        <v>300.84</v>
+        <v>16.8</v>
       </c>
       <c r="D12" t="n">
-        <v>301.836</v>
+        <v>16.8</v>
       </c>
       <c r="E12" t="n">
-        <v>303.363</v>
+        <v>16.9</v>
       </c>
       <c r="F12" t="n">
-        <v>304.127</v>
+        <v>16.9</v>
       </c>
       <c r="G12" t="n">
-        <v>305.109</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>305.691</v>
+        <v>17.2</v>
       </c>
       <c r="I12" t="n">
-        <v>307.026</v>
+        <v>17.1</v>
       </c>
       <c r="J12" t="n">
-        <v>307.789</v>
+        <v>17.2</v>
       </c>
       <c r="K12" t="n">
-        <v>307.671</v>
+        <v>17.3</v>
       </c>
       <c r="L12" t="n">
-        <v>307.051</v>
+        <v>17.3</v>
       </c>
       <c r="M12" t="n">
-        <v>306.746</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2024</v>
+        <v>1924</v>
       </c>
       <c r="B13" t="n">
-        <v>308.417</v>
+        <v>17.3</v>
       </c>
       <c r="C13" t="n">
-        <v>310.326</v>
+        <v>17.2</v>
       </c>
       <c r="D13" t="n">
-        <v>312.332</v>
+        <v>17.1</v>
       </c>
       <c r="E13" t="n">
-        <v>313.548</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>314.069</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>314.175</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>314.54</v>
+        <v>17.1</v>
       </c>
       <c r="I13" t="n">
-        <v>314.796</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>315.301</v>
+        <v>17.1</v>
       </c>
       <c r="K13" t="n">
-        <v>315.664</v>
+        <v>17.2</v>
       </c>
       <c r="L13" t="n">
-        <v>315.493</v>
+        <v>17.2</v>
       </c>
       <c r="M13" t="n">
-        <v>315.605</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B21" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14</v>
+      </c>
+      <c r="J25" t="n">
+        <v>14</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14</v>
+      </c>
+      <c r="L25" t="n">
+        <v>14</v>
+      </c>
+      <c r="M25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14</v>
+      </c>
+      <c r="L27" t="n">
+        <v>14</v>
+      </c>
+      <c r="M27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>14</v>
+      </c>
+      <c r="L28" t="n">
+        <v>14</v>
+      </c>
+      <c r="M28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B29" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>14</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14</v>
+      </c>
+      <c r="L29" t="n">
+        <v>14</v>
+      </c>
+      <c r="M29" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16</v>
+      </c>
+      <c r="E31" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="M31" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B33" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="L33" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="M33" t="n">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B34" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B35" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B36" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>22</v>
+      </c>
+      <c r="H36" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>23</v>
+      </c>
+      <c r="K36" t="n">
+        <v>23</v>
+      </c>
+      <c r="L36" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B37" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24</v>
+      </c>
+      <c r="C38" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K38" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="L38" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B39" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="M39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="H40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B41" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B42" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G42" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="H42" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K42" t="n">
+        <v>27</v>
+      </c>
+      <c r="L42" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M42" t="n">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="M43" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K44" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M44" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B45" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B46" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>28</v>
+      </c>
+      <c r="G46" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B47" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="H47" t="n">
+        <v>29</v>
+      </c>
+      <c r="I47" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K47" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L47" t="n">
+        <v>29</v>
+      </c>
+      <c r="M47" t="n">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1959</v>
+      </c>
+      <c r="B48" t="n">
+        <v>29</v>
+      </c>
+      <c r="C48" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>29</v>
+      </c>
+      <c r="F48" t="n">
+        <v>29</v>
+      </c>
+      <c r="G48" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B49" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L49" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="M49" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B50" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>30</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>30</v>
+      </c>
+      <c r="K50" t="n">
+        <v>30</v>
+      </c>
+      <c r="L50" t="n">
+        <v>30</v>
+      </c>
+      <c r="M50" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B51" t="n">
+        <v>30</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="M51" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B52" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C52" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K52" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L52" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="M52" t="n">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B53" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C53" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D53" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="G53" t="n">
+        <v>31</v>
+      </c>
+      <c r="H53" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>31</v>
+      </c>
+      <c r="J53" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B54" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F54" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="G54" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="K54" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="L54" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="M54" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B55" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>32</v>
+      </c>
+      <c r="D55" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="K55" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="L55" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="M55" t="n">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B56" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>33</v>
+      </c>
+      <c r="E56" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="I56" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="L56" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M56" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B57" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="I57" t="n">
+        <v>35</v>
+      </c>
+      <c r="J57" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="M57" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B58" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>37</v>
+      </c>
+      <c r="J58" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B59" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>38</v>
+      </c>
+      <c r="D59" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="G59" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="H59" t="n">
+        <v>39</v>
+      </c>
+      <c r="I59" t="n">
+        <v>39</v>
+      </c>
+      <c r="J59" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L59" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="M59" t="n">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B60" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>40</v>
+      </c>
+      <c r="E60" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="L60" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="M60" t="n">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B61" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="G61" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="I61" t="n">
+        <v>42</v>
+      </c>
+      <c r="J61" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="M61" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B62" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="C62" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="D62" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G62" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="L62" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="M62" t="n">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B63" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C63" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>48</v>
+      </c>
+      <c r="F63" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="G63" t="n">
+        <v>49</v>
+      </c>
+      <c r="H63" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>50</v>
+      </c>
+      <c r="J63" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B64" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="H64" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="K64" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L64" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B65" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C65" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="H65" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="K65" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="L65" t="n">
+        <v>58</v>
+      </c>
+      <c r="M65" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B66" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>60</v>
+      </c>
+      <c r="F66" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="G66" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>61</v>
+      </c>
+      <c r="I66" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="L66" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="M66" t="n">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B67" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D67" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>66</v>
+      </c>
+      <c r="J67" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="L67" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M67" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B68" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="I68" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K68" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="M68" t="n">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B69" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="E69" t="n">
+        <v>81</v>
+      </c>
+      <c r="F69" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="G69" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="I69" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>84</v>
+      </c>
+      <c r="K69" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="L69" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="M69" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B70" t="n">
+        <v>87</v>
+      </c>
+      <c r="C70" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="G70" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="I70" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="K70" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="L70" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="M70" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B71" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D71" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="G71" t="n">
+        <v>97</v>
+      </c>
+      <c r="H71" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="K71" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>98</v>
+      </c>
+      <c r="M71" t="n">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B72" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E72" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="K72" t="n">
+        <v>101</v>
+      </c>
+      <c r="L72" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B73" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>105</v>
+      </c>
+      <c r="K73" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="L73" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="M73" t="n">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B74" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>106</v>
+      </c>
+      <c r="D74" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="H74" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>108</v>
+      </c>
+      <c r="J74" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="L74" t="n">
+        <v>109</v>
+      </c>
+      <c r="M74" t="n">
+        <v>109.3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B75" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="G75" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="I75" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="J75" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="L75" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B76" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="F76" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="H76" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="I76" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>115</v>
+      </c>
+      <c r="K76" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="M76" t="n">
+        <v>115.4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B77" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>116</v>
+      </c>
+      <c r="D77" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>118</v>
+      </c>
+      <c r="H77" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>119</v>
+      </c>
+      <c r="J77" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="K77" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B78" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="G78" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>125</v>
+      </c>
+      <c r="K78" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="L78" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="M78" t="n">
+        <v>126.1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B79" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>128</v>
+      </c>
+      <c r="D79" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="H79" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="I79" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="K79" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="L79" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="M79" t="n">
+        <v>133.8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B80" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C80" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>135</v>
+      </c>
+      <c r="E80" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="G80" t="n">
+        <v>136</v>
+      </c>
+      <c r="H80" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="L80" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="M80" t="n">
+        <v>137.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B81" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="G81" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="H81" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="I81" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="L81" t="n">
+        <v>142</v>
+      </c>
+      <c r="M81" t="n">
+        <v>141.9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B82" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="C82" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="E82" t="n">
+        <v>144</v>
+      </c>
+      <c r="F82" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="G82" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="L82" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="M82" t="n">
+        <v>145.8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B83" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>148</v>
+      </c>
+      <c r="H83" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>149</v>
+      </c>
+      <c r="J83" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="L83" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="M83" t="n">
+        <v>149.7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B84" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="E84" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="H84" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="L84" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="M84" t="n">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B85" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>155.7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="G85" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="H85" t="n">
+        <v>157</v>
+      </c>
+      <c r="I85" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="K85" t="n">
+        <v>158.3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>158.6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B86" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>160</v>
+      </c>
+      <c r="E86" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="H86" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>161.6</v>
+      </c>
+      <c r="L86" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>161.3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B87" t="n">
+        <v>161.6</v>
+      </c>
+      <c r="C87" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="G87" t="n">
+        <v>163</v>
+      </c>
+      <c r="H87" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>163.6</v>
+      </c>
+      <c r="K87" t="n">
+        <v>164</v>
+      </c>
+      <c r="L87" t="n">
+        <v>164</v>
+      </c>
+      <c r="M87" t="n">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B88" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>165</v>
+      </c>
+      <c r="E88" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="G88" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="H88" t="n">
+        <v>166.7</v>
+      </c>
+      <c r="I88" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>168.2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>168.3</v>
+      </c>
+      <c r="M88" t="n">
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B89" t="n">
+        <v>168.8</v>
+      </c>
+      <c r="C89" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>171.3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>172.4</v>
+      </c>
+      <c r="H89" t="n">
+        <v>172.8</v>
+      </c>
+      <c r="I89" t="n">
+        <v>172.8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>173.7</v>
+      </c>
+      <c r="K89" t="n">
+        <v>174</v>
+      </c>
+      <c r="L89" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B90" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="D90" t="n">
+        <v>176.2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>176.9</v>
+      </c>
+      <c r="F90" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>178</v>
+      </c>
+      <c r="H90" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>178.3</v>
+      </c>
+      <c r="K90" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="L90" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="M90" t="n">
+        <v>176.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B91" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>178.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="G91" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="H91" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>181</v>
+      </c>
+      <c r="K91" t="n">
+        <v>181.3</v>
+      </c>
+      <c r="L91" t="n">
+        <v>181.3</v>
+      </c>
+      <c r="M91" t="n">
+        <v>180.9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B92" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="H92" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="I92" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="K92" t="n">
+        <v>185</v>
+      </c>
+      <c r="L92" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="M92" t="n">
+        <v>184.3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B93" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>188</v>
+      </c>
+      <c r="F93" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="H93" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="L93" t="n">
+        <v>191</v>
+      </c>
+      <c r="M93" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B94" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C94" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="G94" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="H94" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="I94" t="n">
+        <v>196.4</v>
+      </c>
+      <c r="J94" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="K94" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="M94" t="n">
+        <v>196.8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B95" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>202.9</v>
+      </c>
+      <c r="H95" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="I95" t="n">
+        <v>203.9</v>
+      </c>
+      <c r="J95" t="n">
+        <v>202.9</v>
+      </c>
+      <c r="K95" t="n">
+        <v>201.8</v>
+      </c>
+      <c r="L95" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="M95" t="n">
+        <v>201.8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B96" t="n">
+        <v>202.416</v>
+      </c>
+      <c r="C96" t="n">
+        <v>203.499</v>
+      </c>
+      <c r="D96" t="n">
+        <v>205.352</v>
+      </c>
+      <c r="E96" t="n">
+        <v>206.686</v>
+      </c>
+      <c r="F96" t="n">
+        <v>207.949</v>
+      </c>
+      <c r="G96" t="n">
+        <v>208.352</v>
+      </c>
+      <c r="H96" t="n">
+        <v>208.299</v>
+      </c>
+      <c r="I96" t="n">
+        <v>207.917</v>
+      </c>
+      <c r="J96" t="n">
+        <v>208.49</v>
+      </c>
+      <c r="K96" t="n">
+        <v>208.936</v>
+      </c>
+      <c r="L96" t="n">
+        <v>210.177</v>
+      </c>
+      <c r="M96" t="n">
+        <v>210.036</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B97" t="n">
+        <v>211.08</v>
+      </c>
+      <c r="C97" t="n">
+        <v>211.693</v>
+      </c>
+      <c r="D97" t="n">
+        <v>213.528</v>
+      </c>
+      <c r="E97" t="n">
+        <v>214.823</v>
+      </c>
+      <c r="F97" t="n">
+        <v>216.632</v>
+      </c>
+      <c r="G97" t="n">
+        <v>218.815</v>
+      </c>
+      <c r="H97" t="n">
+        <v>219.964</v>
+      </c>
+      <c r="I97" t="n">
+        <v>219.086</v>
+      </c>
+      <c r="J97" t="n">
+        <v>218.783</v>
+      </c>
+      <c r="K97" t="n">
+        <v>216.573</v>
+      </c>
+      <c r="L97" t="n">
+        <v>212.425</v>
+      </c>
+      <c r="M97" t="n">
+        <v>210.228</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B98" t="n">
+        <v>211.143</v>
+      </c>
+      <c r="C98" t="n">
+        <v>212.193</v>
+      </c>
+      <c r="D98" t="n">
+        <v>212.709</v>
+      </c>
+      <c r="E98" t="n">
+        <v>213.24</v>
+      </c>
+      <c r="F98" t="n">
+        <v>213.856</v>
+      </c>
+      <c r="G98" t="n">
+        <v>215.693</v>
+      </c>
+      <c r="H98" t="n">
+        <v>215.351</v>
+      </c>
+      <c r="I98" t="n">
+        <v>215.834</v>
+      </c>
+      <c r="J98" t="n">
+        <v>215.969</v>
+      </c>
+      <c r="K98" t="n">
+        <v>216.177</v>
+      </c>
+      <c r="L98" t="n">
+        <v>216.33</v>
+      </c>
+      <c r="M98" t="n">
+        <v>215.949</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B99" t="n">
+        <v>216.687</v>
+      </c>
+      <c r="C99" t="n">
+        <v>216.741</v>
+      </c>
+      <c r="D99" t="n">
+        <v>217.631</v>
+      </c>
+      <c r="E99" t="n">
+        <v>218.009</v>
+      </c>
+      <c r="F99" t="n">
+        <v>218.178</v>
+      </c>
+      <c r="G99" t="n">
+        <v>217.965</v>
+      </c>
+      <c r="H99" t="n">
+        <v>218.011</v>
+      </c>
+      <c r="I99" t="n">
+        <v>218.312</v>
+      </c>
+      <c r="J99" t="n">
+        <v>218.439</v>
+      </c>
+      <c r="K99" t="n">
+        <v>218.711</v>
+      </c>
+      <c r="L99" t="n">
+        <v>218.803</v>
+      </c>
+      <c r="M99" t="n">
+        <v>219.179</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B100" t="n">
+        <v>220.223</v>
+      </c>
+      <c r="C100" t="n">
+        <v>221.309</v>
+      </c>
+      <c r="D100" t="n">
+        <v>223.467</v>
+      </c>
+      <c r="E100" t="n">
+        <v>224.906</v>
+      </c>
+      <c r="F100" t="n">
+        <v>225.964</v>
+      </c>
+      <c r="G100" t="n">
+        <v>225.722</v>
+      </c>
+      <c r="H100" t="n">
+        <v>225.922</v>
+      </c>
+      <c r="I100" t="n">
+        <v>226.545</v>
+      </c>
+      <c r="J100" t="n">
+        <v>226.889</v>
+      </c>
+      <c r="K100" t="n">
+        <v>226.421</v>
+      </c>
+      <c r="L100" t="n">
+        <v>226.23</v>
+      </c>
+      <c r="M100" t="n">
+        <v>225.672</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B101" t="n">
+        <v>226.665</v>
+      </c>
+      <c r="C101" t="n">
+        <v>227.663</v>
+      </c>
+      <c r="D101" t="n">
+        <v>229.392</v>
+      </c>
+      <c r="E101" t="n">
+        <v>230.085</v>
+      </c>
+      <c r="F101" t="n">
+        <v>229.815</v>
+      </c>
+      <c r="G101" t="n">
+        <v>229.478</v>
+      </c>
+      <c r="H101" t="n">
+        <v>229.104</v>
+      </c>
+      <c r="I101" t="n">
+        <v>230.379</v>
+      </c>
+      <c r="J101" t="n">
+        <v>231.407</v>
+      </c>
+      <c r="K101" t="n">
+        <v>231.317</v>
+      </c>
+      <c r="L101" t="n">
+        <v>230.221</v>
+      </c>
+      <c r="M101" t="n">
+        <v>229.601</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B102" t="n">
+        <v>230.28</v>
+      </c>
+      <c r="C102" t="n">
+        <v>232.166</v>
+      </c>
+      <c r="D102" t="n">
+        <v>232.773</v>
+      </c>
+      <c r="E102" t="n">
+        <v>232.531</v>
+      </c>
+      <c r="F102" t="n">
+        <v>232.945</v>
+      </c>
+      <c r="G102" t="n">
+        <v>233.504</v>
+      </c>
+      <c r="H102" t="n">
+        <v>233.596</v>
+      </c>
+      <c r="I102" t="n">
+        <v>233.877</v>
+      </c>
+      <c r="J102" t="n">
+        <v>234.149</v>
+      </c>
+      <c r="K102" t="n">
+        <v>233.546</v>
+      </c>
+      <c r="L102" t="n">
+        <v>233.069</v>
+      </c>
+      <c r="M102" t="n">
+        <v>233.049</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B103" t="n">
+        <v>233.916</v>
+      </c>
+      <c r="C103" t="n">
+        <v>234.781</v>
+      </c>
+      <c r="D103" t="n">
+        <v>236.293</v>
+      </c>
+      <c r="E103" t="n">
+        <v>237.072</v>
+      </c>
+      <c r="F103" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="G103" t="n">
+        <v>238.343</v>
+      </c>
+      <c r="H103" t="n">
+        <v>238.25</v>
+      </c>
+      <c r="I103" t="n">
+        <v>237.852</v>
+      </c>
+      <c r="J103" t="n">
+        <v>238.031</v>
+      </c>
+      <c r="K103" t="n">
+        <v>237.433</v>
+      </c>
+      <c r="L103" t="n">
+        <v>236.151</v>
+      </c>
+      <c r="M103" t="n">
+        <v>234.812</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B104" t="n">
+        <v>233.707</v>
+      </c>
+      <c r="C104" t="n">
+        <v>234.722</v>
+      </c>
+      <c r="D104" t="n">
+        <v>236.119</v>
+      </c>
+      <c r="E104" t="n">
+        <v>236.599</v>
+      </c>
+      <c r="F104" t="n">
+        <v>237.805</v>
+      </c>
+      <c r="G104" t="n">
+        <v>238.638</v>
+      </c>
+      <c r="H104" t="n">
+        <v>238.654</v>
+      </c>
+      <c r="I104" t="n">
+        <v>238.316</v>
+      </c>
+      <c r="J104" t="n">
+        <v>237.945</v>
+      </c>
+      <c r="K104" t="n">
+        <v>237.838</v>
+      </c>
+      <c r="L104" t="n">
+        <v>237.336</v>
+      </c>
+      <c r="M104" t="n">
+        <v>236.525</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B105" t="n">
+        <v>236.916</v>
+      </c>
+      <c r="C105" t="n">
+        <v>237.111</v>
+      </c>
+      <c r="D105" t="n">
+        <v>238.132</v>
+      </c>
+      <c r="E105" t="n">
+        <v>239.261</v>
+      </c>
+      <c r="F105" t="n">
+        <v>240.229</v>
+      </c>
+      <c r="G105" t="n">
+        <v>241.018</v>
+      </c>
+      <c r="H105" t="n">
+        <v>240.628</v>
+      </c>
+      <c r="I105" t="n">
+        <v>240.849</v>
+      </c>
+      <c r="J105" t="n">
+        <v>241.428</v>
+      </c>
+      <c r="K105" t="n">
+        <v>241.729</v>
+      </c>
+      <c r="L105" t="n">
+        <v>241.353</v>
+      </c>
+      <c r="M105" t="n">
+        <v>241.432</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B106" t="n">
+        <v>242.839</v>
+      </c>
+      <c r="C106" t="n">
+        <v>243.603</v>
+      </c>
+      <c r="D106" t="n">
+        <v>243.801</v>
+      </c>
+      <c r="E106" t="n">
+        <v>244.524</v>
+      </c>
+      <c r="F106" t="n">
+        <v>244.733</v>
+      </c>
+      <c r="G106" t="n">
+        <v>244.955</v>
+      </c>
+      <c r="H106" t="n">
+        <v>244.786</v>
+      </c>
+      <c r="I106" t="n">
+        <v>245.519</v>
+      </c>
+      <c r="J106" t="n">
+        <v>246.819</v>
+      </c>
+      <c r="K106" t="n">
+        <v>246.663</v>
+      </c>
+      <c r="L106" t="n">
+        <v>246.669</v>
+      </c>
+      <c r="M106" t="n">
+        <v>246.524</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B107" t="n">
+        <v>247.867</v>
+      </c>
+      <c r="C107" t="n">
+        <v>248.991</v>
+      </c>
+      <c r="D107" t="n">
+        <v>249.554</v>
+      </c>
+      <c r="E107" t="n">
+        <v>250.546</v>
+      </c>
+      <c r="F107" t="n">
+        <v>251.588</v>
+      </c>
+      <c r="G107" t="n">
+        <v>251.989</v>
+      </c>
+      <c r="H107" t="n">
+        <v>252.006</v>
+      </c>
+      <c r="I107" t="n">
+        <v>252.146</v>
+      </c>
+      <c r="J107" t="n">
+        <v>252.439</v>
+      </c>
+      <c r="K107" t="n">
+        <v>252.885</v>
+      </c>
+      <c r="L107" t="n">
+        <v>252.038</v>
+      </c>
+      <c r="M107" t="n">
+        <v>251.233</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B108" t="n">
+        <v>251.712</v>
+      </c>
+      <c r="C108" t="n">
+        <v>252.776</v>
+      </c>
+      <c r="D108" t="n">
+        <v>254.202</v>
+      </c>
+      <c r="E108" t="n">
+        <v>255.548</v>
+      </c>
+      <c r="F108" t="n">
+        <v>256.092</v>
+      </c>
+      <c r="G108" t="n">
+        <v>256.143</v>
+      </c>
+      <c r="H108" t="n">
+        <v>256.571</v>
+      </c>
+      <c r="I108" t="n">
+        <v>256.558</v>
+      </c>
+      <c r="J108" t="n">
+        <v>256.759</v>
+      </c>
+      <c r="K108" t="n">
+        <v>257.346</v>
+      </c>
+      <c r="L108" t="n">
+        <v>257.208</v>
+      </c>
+      <c r="M108" t="n">
+        <v>256.974</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B109" t="n">
+        <v>257.971</v>
+      </c>
+      <c r="C109" t="n">
+        <v>258.678</v>
+      </c>
+      <c r="D109" t="n">
+        <v>258.115</v>
+      </c>
+      <c r="E109" t="n">
+        <v>256.389</v>
+      </c>
+      <c r="F109" t="n">
+        <v>256.394</v>
+      </c>
+      <c r="G109" t="n">
+        <v>257.797</v>
+      </c>
+      <c r="H109" t="n">
+        <v>259.101</v>
+      </c>
+      <c r="I109" t="n">
+        <v>259.918</v>
+      </c>
+      <c r="J109" t="n">
+        <v>260.28</v>
+      </c>
+      <c r="K109" t="n">
+        <v>260.388</v>
+      </c>
+      <c r="L109" t="n">
+        <v>260.229</v>
+      </c>
+      <c r="M109" t="n">
+        <v>260.474</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B110" t="n">
+        <v>261.582</v>
+      </c>
+      <c r="C110" t="n">
+        <v>263.014</v>
+      </c>
+      <c r="D110" t="n">
+        <v>264.877</v>
+      </c>
+      <c r="E110" t="n">
+        <v>267.054</v>
+      </c>
+      <c r="F110" t="n">
+        <v>269.195</v>
+      </c>
+      <c r="G110" t="n">
+        <v>271.696</v>
+      </c>
+      <c r="H110" t="n">
+        <v>273.003</v>
+      </c>
+      <c r="I110" t="n">
+        <v>273.567</v>
+      </c>
+      <c r="J110" t="n">
+        <v>274.31</v>
+      </c>
+      <c r="K110" t="n">
+        <v>276.589</v>
+      </c>
+      <c r="L110" t="n">
+        <v>277.948</v>
+      </c>
+      <c r="M110" t="n">
+        <v>278.802</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B111" t="n">
+        <v>281.148</v>
+      </c>
+      <c r="C111" t="n">
+        <v>283.716</v>
+      </c>
+      <c r="D111" t="n">
+        <v>287.504</v>
+      </c>
+      <c r="E111" t="n">
+        <v>289.109</v>
+      </c>
+      <c r="F111" t="n">
+        <v>292.296</v>
+      </c>
+      <c r="G111" t="n">
+        <v>296.311</v>
+      </c>
+      <c r="H111" t="n">
+        <v>296.276</v>
+      </c>
+      <c r="I111" t="n">
+        <v>296.171</v>
+      </c>
+      <c r="J111" t="n">
+        <v>296.808</v>
+      </c>
+      <c r="K111" t="n">
+        <v>298.012</v>
+      </c>
+      <c r="L111" t="n">
+        <v>297.711</v>
+      </c>
+      <c r="M111" t="n">
+        <v>296.797</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B112" t="n">
+        <v>299.17</v>
+      </c>
+      <c r="C112" t="n">
+        <v>300.84</v>
+      </c>
+      <c r="D112" t="n">
+        <v>301.836</v>
+      </c>
+      <c r="E112" t="n">
+        <v>303.363</v>
+      </c>
+      <c r="F112" t="n">
+        <v>304.127</v>
+      </c>
+      <c r="G112" t="n">
+        <v>305.109</v>
+      </c>
+      <c r="H112" t="n">
+        <v>305.691</v>
+      </c>
+      <c r="I112" t="n">
+        <v>307.026</v>
+      </c>
+      <c r="J112" t="n">
+        <v>307.789</v>
+      </c>
+      <c r="K112" t="n">
+        <v>307.671</v>
+      </c>
+      <c r="L112" t="n">
+        <v>307.051</v>
+      </c>
+      <c r="M112" t="n">
+        <v>306.746</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B113" t="n">
+        <v>308.417</v>
+      </c>
+      <c r="C113" t="n">
+        <v>310.326</v>
+      </c>
+      <c r="D113" t="n">
+        <v>312.332</v>
+      </c>
+      <c r="E113" t="n">
+        <v>313.548</v>
+      </c>
+      <c r="F113" t="n">
+        <v>314.069</v>
+      </c>
+      <c r="G113" t="n">
+        <v>314.175</v>
+      </c>
+      <c r="H113" t="n">
+        <v>314.54</v>
+      </c>
+      <c r="I113" t="n">
+        <v>314.796</v>
+      </c>
+      <c r="J113" t="n">
+        <v>315.301</v>
+      </c>
+      <c r="K113" t="n">
+        <v>315.664</v>
+      </c>
+      <c r="L113" t="n">
+        <v>315.493</v>
+      </c>
+      <c r="M113" t="n">
+        <v>315.605</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B114" t="n">
         <v>317.671</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C114" t="n">
         <v>319.082</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D114" t="n">
         <v>319.799</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E114" t="n">
         <v>320.795</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F114" t="n">
         <v>321.465</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G114" t="n">
         <v>322.561</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H114" t="n">
         <v>323.048</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I114" t="n">
         <v>323.976</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
